--- a/medicine/Enfance/Dominique_Ehrhard/Dominique_Ehrhard.xlsx
+++ b/medicine/Enfance/Dominique_Ehrhard/Dominique_Ehrhard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Ehrhard, né le 5 mars 1958 à Mulhouse en Alsace, est un auteur de jeux de société, peintre, auteur de littérature d'enfance et de jeunesse français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études d'Arts plastiques à l'Université de Strasbourg, il passe l'agrégation et enseigne la peinture pendant plusieurs années au Maroc.
 De retour en France, il participe aux activités du groupe CLAC à Nancy et conçoit plusieurs scénographies pour l'Ensemble Artistique d'Alsace.
 En 1986 il s'installe à Orléans puis à Meung-sur-Loire où il partage son temps entre la peinture, l'enseignement, la création de jeux et l'illustration de livres.
 Ses œuvres sont présentées régulièrement dans de nombreuses galeries tant en France qu’à l’étranger.
-Il est récompensé en 2021 par la « Pépite du livre illustré » du Salon du livre et de la presse jeunesse[1] pour Esprit, es-tu là ? avec Anne-Florence Lemasson.
+Il est récompensé en 2021 par la « Pépite du livre illustré » du Salon du livre et de la presse jeunesse pour Esprit, es-tu là ? avec Anne-Florence Lemasson.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Ludographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Snarps, 1990, Schmidt Spiele - Pion d'or jeux &amp; stratégie  1989
@@ -600,9 +616,7 @@
 Serenissima, 2012, Ystari Games (réédition de Méditerranée)
 Panic Lab, 2012, Gigamic
 Dixit - Jinx, 2012, Libellud
-Avec Pierre-Nicolas Lapointe
-Dino Booom ou Ooga, 2003, Goldsieber / Simply Fun USA
-Au voleur !, 2005, Ravensburger</t>
+</t>
         </is>
       </c>
     </row>
@@ -627,10 +641,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ludographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avec Pierre-Nicolas Lapointe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dino Booom ou Ooga, 2003, Goldsieber / Simply Fun USA
+Au voleur !, 2005, Ravensburger</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique_Ehrhard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Ehrhard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Ouvrages de littérature jeunesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Je colorie... (Ouest France) : une série d'ouvrages à colorier sur différents thèmes historiques ou régionaux : les Gallo-Romains, Midi-Pyrennée, la Franche-Comté, 14-18, la préhistoire, les chevaliers, le Nord, Paris, la Belgique, ...
 Un trois-mâts, 6 phares, Moulin, 4 Bateaux de pêche (Ouest France) : une série de livres à découper et à construire en famille.
@@ -647,36 +700,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dominique_Ehrhard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dominique_Ehrhard</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2021 : « Pépite du livre illustré » du Salon du livre et de la presse jeunesse[1], pour Esprit, es-tu là ? avec Anne-Florence Lemasson</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -698,12 +721,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2021 : « Pépite du livre illustré » du Salon du livre et de la presse jeunesse, pour Esprit, es-tu là ? avec Anne-Florence Lemasson</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dominique_Ehrhard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Ehrhard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Expositions personnelles
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions personnelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1983 : galerie CLAC- Nancy
 1984 : galerie Im Theater - Esslingen (RFA)
 1984 : galerie du XXe siècle - Strasbourg
@@ -744,7 +805,43 @@
 2006 : Collégiale Saint-Pierre-le-Puellier - Orléans
 2006 : Galerie du Fleuve, Roy Sfeir - Paris
 2008 : Galerie Gil Bastide - Orléans
-Expositions collectives
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dominique_Ehrhard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Ehrhard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Expositions collectives
 1981 : "Dix Figuratifs" galerie les Idées et les Arts - Strasbourg
 1982 : musée Dar Jamai - Meknes (Maroc)
